--- a/calculos.xlsx
+++ b/calculos.xlsx
@@ -1,22 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="25703"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Macintosh HD/TT2/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="21860" windowHeight="12600" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
   <si>
     <t>ITEM</t>
   </si>
@@ -79,6 +89,30 @@
   </si>
   <si>
     <t>Costo Proyecto</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>IOS</t>
+  </si>
+  <si>
+    <t>Windows Phone</t>
+  </si>
+  <si>
+    <t>BlacBerry</t>
+  </si>
+  <si>
+    <t>BCH</t>
+  </si>
+  <si>
+    <t>BCC</t>
+  </si>
+  <si>
+    <t>BEC</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -86,9 +120,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +149,22 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -252,11 +302,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -273,13 +328,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -297,10 +352,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="7">
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Moneda [0]" xfId="1" builtinId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -310,6 +371,951 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>SO vs. % de uso</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja3!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Android</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>IOS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Windows Phone</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BlacBerry</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Otros</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja3!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.6505</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3245</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0234666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00113333333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2129417808"/>
+        <c:axId val="2129536704"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2129417808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2129536704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2129536704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2129417808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>525320</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>83128</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>265545</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>173183</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -355,7 +1361,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -390,7 +1396,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -605,15 +1611,15 @@
       <selection activeCell="D20" sqref="A1:D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>20</v>
       </c>
@@ -621,7 +1627,7 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -635,7 +1641,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -650,7 +1656,7 @@
         <v>357620515</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -663,7 +1669,7 @@
         <v>229339588</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -676,7 +1682,7 @@
         <v>434959655</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -689,7 +1695,7 @@
         <v>143588657</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -704,7 +1710,7 @@
         <v>40100974</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -717,7 +1723,7 @@
         <v>91280420</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
@@ -734,14 +1740,14 @@
         <v>1296889809</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="13"/>
     </row>
-    <row r="12" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -749,7 +1755,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -757,7 +1763,7 @@
         <v>76258391</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
@@ -765,13 +1771,13 @@
         <v>6446303</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
@@ -779,13 +1785,13 @@
         <v>25785211</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="6"/>
     </row>
-    <row r="18" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
@@ -794,7 +1800,7 @@
         <v>108489905</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>18</v>
       </c>
@@ -817,19 +1823,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="A16:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="32" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="32" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>20</v>
       </c>
@@ -837,7 +1843,7 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -851,7 +1857,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -866,7 +1872,7 @@
         <v>357620515</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -879,7 +1885,7 @@
         <v>229339588</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -892,7 +1898,7 @@
         <v>434959655</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -907,7 +1913,7 @@
         <v>40100974</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
@@ -924,14 +1930,14 @@
         <v>1062020732</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="13"/>
     </row>
-    <row r="10" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -939,7 +1945,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -947,7 +1953,7 @@
         <v>76258391</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -955,7 +1961,7 @@
         <v>6446303</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -963,7 +1969,7 @@
         <v>25785211</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>17</v>
       </c>
@@ -972,7 +1978,7 @@
         <v>108489905</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>18</v>
       </c>
@@ -992,12 +1998,145 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="E6" sqref="A1:E6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="14">
+        <v>0.63329999999999997</v>
+      </c>
+      <c r="C2" s="14">
+        <v>0.83919999999999995</v>
+      </c>
+      <c r="D2" s="14">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="E2" s="14">
+        <f>SUM(B2:D2)/3</f>
+        <v>0.65049999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="14">
+        <v>0.34110000000000001</v>
+      </c>
+      <c r="C3" s="14">
+        <v>0.1321</v>
+      </c>
+      <c r="D3" s="14">
+        <v>0.50029999999999997</v>
+      </c>
+      <c r="E3" s="14">
+        <f t="shared" ref="E3:E6" si="0">SUM(B3:D3)/3</f>
+        <v>0.32450000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="14">
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="C4" s="14">
+        <v>2.75E-2</v>
+      </c>
+      <c r="D4" s="14">
+        <v>1.9300000000000001E-2</v>
+      </c>
+      <c r="E4" s="14">
+        <f t="shared" si="0"/>
+        <v>2.3466666666666667E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="14">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="C5" s="14">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="D5" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="E5" s="14">
+        <f t="shared" si="0"/>
+        <v>1.1333333333333334E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="14">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="C6" s="14">
+        <v>1E-4</v>
+      </c>
+      <c r="D6" s="14">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E6" s="14">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <f>SUM(B2:B6)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:E7" si="1">SUM(C2:C6)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>